--- a/ExcelAssessmentIntegration/ExcelAssessmentIntegration/bin/dataSheets/19_fall_CPSC146_1.xlsx
+++ b/ExcelAssessmentIntegration/ExcelAssessmentIntegration/bin/dataSheets/19_fall_CPSC146_1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\College Work\ExcelAssessmentIntegration\CPSC236FinalProject\dataSheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\College Work\ExcelAssessmentIntegration\CPSC236FinalProject\ExcelAssessmentIntegration\ExcelAssessmentIntegration\bin\dataSheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{85B65218-9138-4725-B2F3-91D6C1A353D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5E141A5-5FA1-4942-9111-8B5DC5FF741B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{267C837C-C0E8-4FFE-8F95-51316AE109C3}"/>
   </bookViews>
@@ -33,23 +33,29 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>example objective 2</t>
+    <t>obj1</t>
   </si>
   <si>
-    <t>example objective 1</t>
+    <t>obj2</t>
   </si>
   <si>
-    <t>example objective 3</t>
+    <t>obj3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -394,7 +400,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -404,7 +410,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1">
         <v>22</v>
@@ -418,7 +424,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2">
         <v>24</v>
@@ -445,6 +451,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>